--- a/features/backlog/android/app_crushing_report.xlsx
+++ b/features/backlog/android/app_crushing_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8908C-347C-4B69-8EFB-59F3D4FBC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D7D44-1412-4A6A-A659-F86825DB1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -152,6 +152,192 @@
   <si>
     <t>Test case scenario : App Crushing Report</t>
   </si>
+  <si>
+    <t>Test the notification toggle with different language settings to ensure proper localization.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle on Android emulators with different configurations.</t>
+  </si>
+  <si>
+    <t>Toggle notifications in different display modes, such as night mode or dark mode.</t>
+  </si>
+  <si>
+    <t>Uninstall and reinstall the app. Verify that the notification toggle state is reset to the default.</t>
+  </si>
+  <si>
+    <t>Toggle notifications and then revoke app permissions to confirm the expected behavior.</t>
+  </si>
+  <si>
+    <t>Toggle notifications while the device is in silent mode. Confirm that the app respects the device's silent mode settings.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle while the app has background processes running.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle in different time zones to ensure proper functionality.</t>
+  </si>
+  <si>
+    <t>Verify that the notification toggle accommodates accessibility settings.</t>
+  </si>
+  <si>
+    <t>Assess the app's responsiveness when the notification toggle is used during heavy app usage.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle when the app interacts with other apps on the device.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle in both portrait and landscape orientations.</t>
+  </si>
+  <si>
+    <t>Confirm that the notification toggle works seamlessly with apps configured in different languages.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle on older versions of the app to ensure backward compatibility.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle while the app is stored on external storage.</t>
+  </si>
+  <si>
+    <t>Toggle notifications when the device is in low battery mode.</t>
+  </si>
+  <si>
+    <t>Confirm that the app provides in-app notifications based on the toggle state.</t>
+  </si>
+  <si>
+    <t>Toggle notifications while connected to Bluetooth devices.</t>
+  </si>
+  <si>
+    <t>Verify that enabling notifications prompts the user with the appropriate permissions dialog.</t>
+  </si>
+  <si>
+    <t>Confirm that the app allows users to customize notification preferences.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle on devices with different screen resolutions.</t>
+  </si>
+  <si>
+    <t>Toggle notifications during the app initialization process.</t>
+  </si>
+  <si>
+    <t>Verify that the notification toggle does not interfere with essential background tasks.</t>
+  </si>
+  <si>
+    <t>Test different priority levels for notifications.</t>
+  </si>
+  <si>
+    <t>Confirm that the notification toggle adheres to Android's accessibility features.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle when the app is subject to Android's background limitations.</t>
+  </si>
+  <si>
+    <t>Toggle notifications and then reset app permissions. Confirm the expected behavior.</t>
+  </si>
+  <si>
+    <t>Test the notification toggle in an app that integrates third-party libraries for notification services.</t>
+  </si>
+  <si>
+    <t>Confirm that the app handles silent notifications appropriately.</t>
+  </si>
+  <si>
+    <t>Verify that enabling notifications does not require additional auto</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-016</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-017</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-018</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-019</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-020</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-021</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-022</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-023</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-024</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-025</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-026</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-027</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-028</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-029</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-030</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-031</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-032</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-033</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-034</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-035</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-036</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-037</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-038</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-039</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-040</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-041</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-042</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-043</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-044</t>
+  </si>
+  <si>
+    <t>SYMAPPCRUS-045</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. travers the app
+3. check and find any crushing point
+4. analyze the app crushing data.</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,19 +403,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -258,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -290,9 +463,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,7 +1140,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G19" headerRowDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G48" headerRowDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1188,13 +1358,13 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="50.6640625" style="2" customWidth="1"/>
@@ -1206,15 +1376,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1236,13 +1406,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1358,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -1385,7 +1555,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -1423,7 +1593,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -1461,7 +1631,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -1499,7 +1669,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1510,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
@@ -1537,7 +1707,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1575,7 +1745,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1613,7 +1783,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1821,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1879,14 +2049,24 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1907,14 +2087,24 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+    <row r="20" spans="1:26" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1935,14 +2125,24 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="21" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1963,14 +2163,24 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1991,14 +2201,24 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2019,14 +2239,24 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="1:26" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2047,14 +2277,24 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2075,14 +2315,24 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+    <row r="26" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2103,14 +2353,24 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2131,14 +2391,24 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+    <row r="28" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2159,14 +2429,24 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2187,14 +2467,24 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+    <row r="30" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2215,14 +2505,24 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+    <row r="31" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2243,14 +2543,24 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2271,14 +2581,24 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+    <row r="33" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2299,14 +2619,24 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="1:26" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2327,14 +2657,24 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+    <row r="35" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2355,14 +2695,24 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="36" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2383,14 +2733,24 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+    <row r="37" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2411,14 +2771,24 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+    <row r="38" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2439,14 +2809,24 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+    <row r="39" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2467,14 +2847,24 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+    <row r="40" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2495,14 +2885,24 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+    <row r="41" spans="1:26" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2523,14 +2923,24 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+    <row r="42" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2551,14 +2961,24 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+    <row r="43" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2579,14 +2999,24 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+    <row r="44" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2607,14 +3037,24 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+    <row r="45" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2635,14 +3075,24 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+    <row r="46" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2663,14 +3113,24 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+    <row r="47" spans="1:26" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2691,14 +3151,24 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+    <row r="48" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
